--- a/QUESTÕES/RACIOCÍNIO LÓGICO  - TD 03.xlsx
+++ b/QUESTÕES/RACIOCÍNIO LÓGICO  - TD 03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
   <si>
     <t xml:space="preserve">materia</t>
   </si>
@@ -44,6 +44,198 @@
   </si>
   <si>
     <t xml:space="preserve">TESTE DE DIREÇÃO 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) As proposições P, Q e R são proposições simples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) As proposições P, Q e R são proposições simples. As proposições Q e R são claramente SIMPLES. Entretanto, o CESPE anulou esta questão por entender que a proposição P permite duas interpretações distintas. Vejamos: - primeira interpretação (proposição simples): temos um sujeito composto “João e Carlos”. Este sujeito pode ser resumido pela expressão “Eles”, ficando: “Eles não são culpados” Esta é claramente uma proposição simples. Deste modo, o item estaria CERTO. - segunda interpretação (proposição composta): temos um verbo oculto, que poderia ser representado explicitamente, ficando “João não é culpado e Carlos não é culpado”, o que seria uma proposição composta. Deste modo, o item estaria ERRADO, que foi o gabarito preliminar do Cespe. De qualquer forma, o item foi ANULADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) A proposição “Se Paulo é mentiroso então Maria é culpada.” pode ser representada simbolicamente por (~Q)↔(~R).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) A proposição “Se Paulo é mentiroso então Maria é culpada.” pode ser representada simbolicamente por (~Q)↔(~R). A representação simbólica é de uma BICONDICIONAL (se e somente se), enquanto a proposição escrita é uma condicional. Item ERRADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) Se ficar comprovado que apenas um dos quatro envolvidos no ilícito penal é culpado, então a proposição simbolizada por (~P)→(~Q)vR será verdadeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Se ficar comprovado que apenas um dos quatro envolvidos no ilícito penal é culpado, então a proposição simbolizada por (~P)→(~Q)vR será verdadeira. Comprovando que apenas UM é culpado, então certamente a proposição P precisa ser verdadeira (João e Carlos NÃO são culpados). Afinal, se P fosse falsa, já teríamos de início duas pessoas culpadas. Como P é V, temos certeza que ~P é F. Assim, a condicional deste item é VERDADEIRA, pois uma condicional que começa com F é sempre verdadeira. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) Independentemente de quem seja culpado, a proposição {P→(~Q)}→{Qv[(~Q)vR]} será sempre verdadeira, isto é, será uma tautologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Independentemente de quem seja culpado, a proposição {P→(~Q)}→{Qv[(~Q)vR]} será sempre verdadeira, isto é, será uma tautologia. Como a banca afirmou que a proposição é SEMPRE verdadeira, podemos desafiá-la, tentando deixar a proposição falsa. Como a proposição é uma condicional, para deixa-la falsa é preciso que o primeiro termo seja Verdadeiro {P→(~Q)} e o segundo termo seja falso {QV[((~Q)VR]}. Entretanto, note que este segundo termo NUNCA fica falso. Caso Q seja V, a disjunção Q V (~Q V R) será verdadeira. Da mesma forma, caso Q seja F, a disjunção também será verdadeira. Isto deixa claro que NÃO é possível deixar a proposição falsa. Ela será sempre verdadeira mesmo, ou seja, uma tautologia. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) As proposições P^(~Q)→(~R) e R→[Q^(~P)] são equivalentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) As proposições P^(~Q)→(~R) e R→[Q^(~P)] são equivalentes. Vamos criar as seguintes proposições: A = P^(~Q) B = (~R) Deste modo, a primeira proposição do item é A→B. Sabemos que esta condicional equivale à sua contrapositiva, que é obtida por ~B→~A, onde: ~B = R ~A = ~P v Q Logo, temos: R→[(~P) v Q]. Repare que esta proposição é diferente da equivalência proposta pela banca. Item ERRADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As proposições P, Q e R a seguir referem-se a um ilícito penal envolvendo João, Carlos, Paulo e Maria: P: “João e Carlos não são culpados”. Q: “Paulo não é mentiroso”. R: “Maria é inocente”. Considerando que ~X representa a negação da proposição X, julgue os itens a seguir. ( ) Se as três proposições P, Q e R forem falsas, então pelo menos duas das pessoas envolvidas no ilícito penal serão culpadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Se as três proposições P, Q e R forem falsas, então pelo menos duas das pessoas envolvidas no ilícito penal serão culpadas. Como R é falsa, sabemos que Maria NÃO é inocente, ou seja, Maria é culpada. Como P é falsa, sabemos que João e Carlos SÃO culpados (ou pelo menos um deles é culpado). Isso nos permite concluir que pelo menos duas pessoas são culpadas. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue o seguinte item, relativo à lógica proposicional e à lógica de argumentação. Se P e Q são proposições simples, então a proposição [P→Q]∧P é uma tautologia, isto é, independentemente dos valores lógicos V ou F atribuídos a P e Q, o valor lógico de [P→Q]∧P será sempre V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para verificar se a proposição [P→Q]∧P é uma tautologia, podemos força-la a ser falsa. Temos uma conjunção, que para ser falsa precisa que pelo menos um dos lados seja falso. Repare que se atribuirmos valor falso à proposição P, automaticamente a conjunção será falsa. Ou seja, [P→Q]∧P não é uma tautologia. Item errado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue o seguinte item, relativo à lógica proposicional e à lógica de argumentação. A proposição “A construção de portos deveria ser uma prioridade de governo, dado que o transporte de cargas por vias marítimas é uma forma bastante econômica de escoamento de mercadorias.” pode ser representada simbolicamente por P∧Q, em que P e Q são proposições simples adequadamente escolhidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podemos definir P e Q da seguinte forma: P → a construção de portos deve ser uma prioridade Q → o transporte de cargas por vias marítimas é uma forma econômica de escoamento Perceba que devido ao fato de o transporte marítimo ser econômico, a construção de portos deveria ser prioridade. Temos uma condicional, da seguinte forma: se o transporte de cargas por vias marítimas é uma forma bastante econômica de escoamento de mercadorias, então a construção de portos deveria ser uma prioridade de governo. Item errado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue o item seguinte, relativo à lógica proposicional e de argumentação. Se P e Q são proposições lógicas simples, então a proposição composta S = [P→Q]⇔[Q∨(~P)] é uma tautologia, isto é, independentemente dos valores lógicos V ou F atribuídos a P e Q, o valor lógico de S será sempre V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para verificar se é uma tautologia, podemos montar a tabela-verdade da proposição:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue o item seguinte, relativo à lógica proposicional e de argumentação. A proposição “Se Sônia é baixa, então Sônia pratica ginástica olímpica.” é logicamente equivalente à sentença “Se Sônia é alta, então Sônia não pratica ginástica olímpica.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabemos que a proposição p→q é equivalente a ~q→~p. Em “Se Sônia é baixa, então Sônia pratica ginástica olímpica” temos: p: Sônia é baixa q: Sônia pratica ginástica olímpica Assim, a equivalente ~q→~p fica sendo: Se Sônia não pratica ginástica olímpica então Sônia não é baixa. Em outras palavras, Se Sônia não pratica ginástica olímpica, então Sônia é alta. Dessa forma, a proposição dada na assertiva está incorreta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue os itens a seguir, a respeito de lógica proposicional. ( ) A proposição “Os Poderes Executivo, Legislativo e Judiciário devem estar em constante estado de alerta sobre as ações das agências de inteligência.” pode ser corretamente representada pela expressão lógica P^Q^R, em que P, Q e R são proposições simples adequadamente escolhidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veja que estamos diante de uma frase que possui o sujeito composto “Os Poderes Executivo, Legislativo e Judiciário”. Este sujeito pode ser resumido em “Os três Poderes”. Ficamos com a frase: “Os três Poderes devem estar em constante estado de alerta sobre as ações das agências de inteligência” Fica nítido que estamos diante de uma proposição simples, ou melhor, uma única oração. O gabarito é ERRADO, pois para representar na forma P^Q^R deveríamos ter três proposições simples ligadas por conectivos de conjunção (“e”), como, por exemplo, na frase: Estudo muito E trabalho pouco E ganho pouco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue os itens a seguir, a respeito de lógica proposicional. ( ) A proposição “A vigilância dos cidadãos exercida pelo Estado é consequência da radicalização da sociedade civil em suas posições políticas.” pode ser corretamente representada pela expressão lógica P→Q, em que P e Q são proposições simples escolhidas adequadamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui temos a frase que pode ser resumida assim: “A vigilância é consequência da radicalização”. Note que aparentemente temos uma ideia de causa e consequência, que remete à ideia de proposição condicional. Mas não temos nenhum conectivo lógico nesta frase, e um único verbo, o que nos permite afirmar que esta é uma proposição SIMPLES, não podendo ser representada na forma P→Q. Item ERRADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgue o item seguinte, relativo à lógica proposicional e de argumentação. O seguinte argumento constitui um argumento válido: “O Porto de Itaqui está no Sudeste brasileiro, pois o Porto de Itaqui está localizado na Ilha de Marajó e a Ilha de Marajó está localizada em São Paulo.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temos o seguinte argumento, composto de duas premissas e uma conclusão: P1: A Ilha de Marajó está localizada em São Paulo (ou ainda, “a ilha de Marajó está localizada no Sudeste brasileiro”) P2: O Porto de Itaqui está localizado na Ilha de Marajó C: O Porto de Itaqui está no Sudeste brasileiro Veja que a conclusão decorre diretamente das premissas. O Porto está na Ilha, já a Ilha está no Sudeste. Logo, o Porto está no Sudeste. Temos um argumento válido. Resposta: C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As seguintes proposições lógicas formam um conjunto de premissas de um argumento: • Se Pedro não é músico, então André é servidor da ABIN. • Se André é servidor da ABIN, então Carlos não é um espião. • Carlos é um espião. A partir dessas premissas, julgue o item a seguir, acerca de lógica de argumentação. ( ) Se a proposição lógica “Pedro é músico.” for a conclusão desse argumento, então, as premissas juntamente com essa conclusão constituem um argumento válido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe que nós temos as seguintes premissas no enunciado: P1: Se Pedro não é músico, então André é servidor da ABIN. P2: Se André é servidor da ABIN, então Carlos não é um espião. P3: Carlos é um espião. Repare que as 2 primeiras premissas são proposições compostas (condicionais). Já a 3ª premissa é uma proposição simples. A questão pede, justamente, se nós podemos concluir que “Pedro é músico”. Estamos, portanto, diante de uma questão do tipo 02. Para resolver, devemos começar assumindo que a proposição simples é verdadeira, ou seja: Carlos é um espião A partir disso, devemos tentar deixar as demais premissas verdadeiras. Com a informação que já temos, podemos dizer que o trecho “Carlos não é um espião” da premissa P2 é falso. Deste modo, para que a disjunção P2 seja verdadeira, precisamos que André é servidor da ABIN seja falso (afinal, se isto fosse mentira, ficaríamos com uma condicional “ V → F”, que seria falsa). Agora podemos avaliar a premissa P1, pois sabemos que “André é servidor da ABIN” é falso. Assim, o trecho Pedro não é músico precisa ser falso, para deixar a proposição verdadeira (caso contrário, cairíamos em V → F). Com isso em mãos, podemos dizer que Pedro é músico. Item CORRETO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sentença “As consequências de nossos atos são florestas devastadas, descongelamento das calotas polares, extinção de dezenas de espécies animais, poluição dos rios e diminuição drástica das reservas de água potável” apresenta um argumento válido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veja que esta frase não nos apresenta um argumento, mas apenas uma única declaração (dizendo quais são as consequências dos nossos atos). Não há que se falar em argumento, que deve ser composto por premissas e conclusão. Item ERRADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considere que as seguintes proposições sejam verdadeiras. - Quando chove, Maria não vai ao cinema. - Quando Cláudio fica em casa, Maria vai ao cinema. - Quando Cláudio sai de casa, não faz frio. - Quando Fernando está estudando, não chove. - Durante a noite, faz frio. Tendo como referência as proposições apresentadas, julgue os itens subsecutivos. ( ) Se Maria foi ao cinema, então Fernando estava estudando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Se Maria foi ao cinema, então Fernando estava estudando. Podemos resumir o argumento assim: P1: Chove→ Maria não cinema P2: Cláudio fica → Maria cinema P3: Cláudio sai → não frio P4: Fernando estuda → não chove P5: Noite → frio Conclusão: Maria cinema→Fernando estuda Queremos verificar se esta conclusão (que está no item) é uma conclusão VÁLIDA para o argumento, isto é, é uma conclusão que torna o argumento VÁLIDO. Vamos achar as contrapositivas de P1 e P4: P1: Maria cinema → Não chove P4: Chove → Fernando não estuda Veja que não é possível emendar as proposições para chegar em Maria cinema → Fernando estuda. Logo, o argumento é inválido. Item ERRADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considere que as seguintes proposições sejam verdadeiras. - Quando chove, Maria não vai ao cinema. - Quando Cláudio fica em casa, Maria vai ao cinema. - Quando Cláudio sai de casa, não faz frio. - Quando Fernando está estudando, não chove. - Durante a noite, faz frio. Tendo como referência as proposições apresentadas, julgue os itens subsecutivos. ( ) Durante a noite, não chove.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Durante a noite, não chove. As contrapositivas de P1 e P3 são: P1: Maria cinema → Não chove P3: Frio → Cláudio fica Assim, vamos emendar P5 → P3 (contrapositiva) → P2 → P1 (contrapositiva) Noite → frio → Cláudio fica → Maria cinema → Não chove Logo, podemos afirmar que Noite → Não chove. Ou seja, Durante a noite, não chove. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O raciocínio: Nenhum peixe é ave. Logo, nenhuma ave é peixe é válido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temos o seguinte argumento: Premissa: Nenhum peixe é ave Conclusão: Nenhuma ave é peixe Repare que, se a premissa for verdadeira (não houver nenhum peixe no mundo que também é ave), a conclusão obrigatoriamente deve ser verdadeira (não haverá nenhuma ave no mundo que também seja peixe). Portanto, podemos dizer que a conclusão decorre automaticamente da premissa, o que caracteriza um argumento válido. Item CORRETO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para liquidar o estoque de determinado produto, o lojista ofereceu um desconto de 10% no preço de venda. Passados alguns dias, para o estoque remanescente, o lojista concedeu novo desconto, agora de 20% sobre o preço já com primeiro desconto. Nessa situação, o valor do desconto que é equivalente a um único desconto aplicado sobre o preço do produto é igual a 28%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos imaginar que o preço inicial de venda tenha sido 100 reais. O primeiro desconto foi de 10% sobre esse preço, que passou a custar 100 – 0,1 x 100 = 100 – 10 = 90 reais. O segundo desconto de 20% foi dado sobre o preço já com o primeiro desconto. Ficou: 0,2 x 90 = 18 reais. Portanto, o desconto total foi de: 10 + 18 = 28 reais. Ou seja, 28% em relação ao preço inicial de 100 reais. Item CORRETO. Veja que você não precisava imaginar que o preço inicial era 100 reais. Eu faço isso para tornar o cálculo mais agradável, e você compreender melhor. Mas suponha que o preço de venda inicial seja P. O primeiro desconto foi de 10% sobre esse preço, que passou a custar P – 0,1P = 0,9P. O segundo desconto de 20% foi dado sobre o preço já com o primeiro desconto. Ficou: 0,2 x 0,9P = 0,18P. Portanto, o desconto total foi de: 0,1P + 0,18P = 0,28P. Ou seja, 28%. Você pode resolver atribuindo valores ou trabalhando com variáveis (“letras”), ok?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao passar com seu veículo por um radar eletrônico de medição de velocidade, o condutor percebeu que o velocímetro do seu carro indicava a velocidade de 99km/h. Sabe-se que a velocidade mostrada no velocímetro do veículo é 10% maior que a velocidade real, que o radar mede a velocidade real do veículo, mas o órgão fiscalizador de trânsito considera, para efeito de infração, valores de velocidade 10% inferiores à velocidade real. Nessa situação, considerando que a velocidade máxima permitida para a via onde se localiza o referido radar é de 80km/h, julgue o próximo item. O condutor não cometeu infração, pois, descontando-se 20% da velocidade mostrada no velocímetro de seu veículo, o valor da velocidade considerada pelo órgão fiscalizador será de 79km/h.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O velocímetro marcava 99km/h. Esta velocidade é 10% maior do que a velocidade real, ou seja, Velocidade real x (1+10%) = 99 Velocidade real x 1,1 = 99 Velocidade real = 99/1,1 = 90 km/h A velocidade considerada, para efeito de infração, é 10% inferior à velocidade real, ou seja, Velocidade para infração = 90 x (1 - 10%) = 90 x 0,9 = 81km/h Note que esta velocidade é superior a 80km/h, logo o motorista COMETEU infração. Item ERRADO. Veja que o examinador tentou induzir o candidato a retirar, de uma vez, 20% de 99km/h, somando indevidamente os dois percentuais de 10%. Este cálculo é incorreto, e realmente resultaria em 79km/h. Resposta: E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ANVISA recomenda que o consumo do medicamento X seja limitado a 4 caixas por mês e determina que o preço máximo dessa quantidade de caixas não ultrapasse 30% do valor do salário mínimo, que, atualmente, é de R$880,00. Assertiva: Nessa situação, o preço de cada caixa do medicamento X não poderá ultrapassar R$66,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O preço máximo do conjunto de 4 caixas é de 30% de 880 reais (que é o salário mínimo). Ou seja, Preço máximo = 30% de 880 Preço máximo = 30 × Preço máximo = 3×88 Preço máximo = 264 reais O preço máximo de cada caixa é, portanto, = 66 reais. Item CERTO. Resposta: C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 21. A alíquota de contribuição dos segurados contribuinte individual e facultativo será de vinte por cento sobre o respectivo salário-de-contribuição. Considerando o art. 21 da Lei n. 8.212/1991, acima reproduzido, julgue o item seguinte. ( ) Se o valor da contribuição de um segurado contribuinte individual for superior a R$700,00, então o salário-de-contribuição desse indivíduo é superior a R$3.500,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veja que: Contribuição = 20% do Salário de contribuição Contribuição = 20% x Salário de contribuição Como a contribuição é superior a 700 reais, vemos que: Contribuição &gt; 700 20% x Salário de contribuição &gt; 700 1/5 x Salário de contribuição &gt; 700 Salário de contribuição &gt; 700 x 5 Salário de contribuição &gt; 3500 Portanto, realmente o salário de contribuição é superior a 3500 reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinado porto recebeu um grande carregamento de frango congelado, carne suína congelada e carne bovina congelada, para exportação. Esses produtos foram distribuídos em 800 contêineres, da seguinte forma: nenhum contêiner foi carregado com os três produtos; 300 contêineres foram carregados com carne bovina; 450, com carne suína; 100, com frango e carne bovina; 150, com carne suína e carne bovina; 100, com frango e carne suína. ( ) Nessa situação hipotética, 250 contêineres foram carregados somente com carne suína.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Nessa situação hipotética, 250 contêineres foram carregados somente com carne suína. Veja o diagrama abaixo, obtido a partir das informações do enunciado: Percebe-se que 200 contêineres foram carregados somente com carne suína. Item errado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinado porto recebeu um grande carregamento de frango congelado, carne suína congelada e carne bovina congelada, para exportação. Esses produtos foram distribuídos em 800 contêineres, da seguinte forma: nenhum contêiner foi carregado com os três produtos; 300 contêineres foram carregados com carne bovina; 450, com carne suína; 100, com frango e carne bovina; 150, com carne suína e carne bovina; 100, com frango e carne suína. ( ) Nessa situação hipotética, 50 contêineres foram carregados somente com carne bovina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Nessa situação hipotética, 50 contêineres foram carregados somente com carne bovina. De fato, pelo diagrama que construímos 50 contêineres foram carregados somente com carne bovina. Item correto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinado porto recebeu um grande carregamento de frango congelado, carne suína congelada e carne bovina congelada, para exportação. Esses produtos foram distribuídos em 800 contêineres, da seguinte forma: nenhum contêiner foi carregado com os três produtos; 300 contêineres foram carregados com carne bovina; 450, com carne suína; 100, com frango e carne bovina; 150, com carne suína e carne bovina; 100, com frango e carne suína. ( ) Nessa situação hipotética, 400 contêineres continham frango congelado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Nessa situação hipotética, 400 contêineres continham frango congelado. Como no total temos 800 contêineres, basta fazermos a soma, tomando o cuidado para não somar duas vezes as partes presentes nas interseções. Uma forma de fazer isso é pegar o conjunto carne bovina inteiro (300 contêineres) e somar com aqueles itens que estão fora de carne bovina, obtendo: 300 + 200 + 100 + X = 800 600 + X = 800 X = 200 Assim, obtemos nosso diagrama final: De fato, o frango congelado está em 100 + 100 + 200 = 400 contêineres. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em um aeroporto, 30 passageiros que desembarcaram de determinado voo e que estiveram nos países A, B ou C, nos quais ocorre uma epidemia infecciosa, foram selecionados para ser examinados. Constatou-se que exatamente 25 dos passageiros selecionados estiveram em A ou em B, nenhum desses 25 passageiros esteve em C e 6 desses 25 passageiros estiveram em A e em B. Com referência a essa situação hipotética, julgue os itens que se seguem. ( ) Considere que, separando-se o grupo de passageiros selecionados que visitou o país A, o grupo que visitou o país B e o grupo que visitou o país C, seja verificado, em cada um desses grupos, que pelo menos a metade dos seus componentes era do sexo masculino. Nessa situação, conclui-se que o grupo de 30 passageiros selecionados tem, no máximo, 14 mulheres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Considere que, separando-se o grupo de passageiros selecionados que visitou o país A, o grupo que visitou o país B e o grupo que visitou o país C, seja verificado, em cada um desses grupos, que pelo menos a metade dos seus componentes era do sexo masculino. Nessa situação, conclui-se que o grupo de 30 passageiros selecionados tem, no máximo, 14 mulheres. No grupo de 5 pessoas que foram ao país C, sabemos que pelo menos metade é de homens. Ou seja, devemos ter no mínimo 3 homens e no MÁXIMO 2 MULHERES. No grupo das 25 pessoas que foram a A ou B, sabemos que pelo menos metade é de homens. Devemos ter no mínimo 13 homens e, NO MÁXIMO, 12 mulheres. Assim, no máximo teremos 2 + 12 = 14 mulheres. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em um aeroporto, 30 passageiros que desembarcaram de determinado voo e que estiveram nos países A, B ou C, nos quais ocorre uma epidemia infecciosa, foram selecionados para ser examinados. Constatou-se que exatamente 25 dos passageiros selecionados estiveram em A ou em B, nenhum desses 25 passageiros esteve em C e 6 desses 25 passageiros estiveram em A e em B. Com referência a essa situação hipotética, julgue os itens que se seguem. ( ) Se 11 passageiros estiveram em B, então mais de 15 estiveram em A. RESOLUÇÃO: Veja que temos 25 passageiros que estiveram APENAS em A ou B, de modo que os outros 5 passageiros estiveram APENAS em C. Veja ainda que 6 passageiros estiveram A e B, de modo que os outros 19 estiveram somente em um desses dois países. Temos uma representação assim:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) Se 11 passageiros estiveram em B, então mais de 15 estiveram em A. O nosso diagrama para este problema é o seguinte: Sabemos que o número de pessoas que estiveram em B é dado pela soma 6 + (19 – X). Ou seja, 11 = 6 + (19 – X) 11 = 25 – X X = 25 – 11 X = 14 Logo, as pessoas que estiveram em A são X + 6 = 14 + 6 = 20. Item CERTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em uma reunião de colegiado, após a aprovação de uma matéria polêmica pelo placar de 6 votos a favor e 5 contra, um dos 11 presentes fez a seguinte afirmação: “Basta um de nós mudar de ideia e a decisão será totalmente modificada”. Se A for o conjunto dos presentes que votaram a favor e B for o conjunto dos presentes que votaram contra, então o conjunto diferença A\B terá exatamente um elemento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nesta questão o CESPE cobrou uma simbologia já exigida no concurso do INSS em 2016. A expressão A\B corresponde ao conjunto A-B. Para obtê-lo, devemos pegar o conjunto A (composto por 6 pessoas que votaram a favor) e retirar aquelas pessoas que TAMBÉM façam parte do conjunto B (composto por 5 pessoas que votaram contra). Como não há interseção entre os 2 conjuntos (ninguém votou a favor e contra ao mesmo tempo), não é preciso tirar ninguém do conjunto A, ou seja, A – B = A, tendo SEIS elementos, e não somente um. Item ERRADO Resposta: E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação hipotética: A ANVISA realizará inspeções em estabelecimentos comerciais que são classificados como Bar ou Restaurante e naqueles que são considerados ao mesmo tempo Bar e Restaurante. Sabe-se que, ao todo, são 96 estabelecimentos a serem visitados, dos quais 49 são classificados como Bar e 60 são classificados como Restaurante. Assertiva: Nessa situação, há mais de 15 estabelecimentos que são classificados como Bar e como Restaurante ao mesmo tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando os conjuntos dos Bares (B) e dos Restaurantes (R), o enunciado nos disse que: n(B ou R) = 96 n(B) = 49 n(R) = 60 Podemos resolver lembrando que: n(B ou R) = n(B) + n(R) – n(B e R) 96 = 49 + 60 – n(B e R) 96 = 109 – n(B e R) n(B e R) = 13 Temos 13 estabelecimentos que são Bar e Restaurante. Item ERRADO. Resposta: E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma população de 1.000 pessoas acima de 60 anos de idade foi dividida nos seguintes dois grupos: A: aqueles que já sofreram infarto (totalizando 400 pessoas); e B: aqueles que nunca sofreram infarto (totalizando 600 pessoas). Cada uma das 400 pessoas do grupo A é ou diabética ou fumante ou ambos (diabética e fumante). A população do grupo B é constituída por três conjuntos de indivíduos: fumantes, ex-fumantes e pessoas que nunca fumaram (não fumantes). Com base nessas informações, julgue os itens subsecutivos. ( ) Se, das pessoas do grupo A, 280 são fumantes e 195 são diabéticas, então 120 pessoas desse grupo são diabéticas e não são fumantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos chamar de D e F os conjuntos das pessoas do grupo A que são diabéticas e fumantes, respectivamente. Foi dito neste item que n(F) = 280 e n(D) = 195. Como o total de pessoas deste grupo A é de 400, podemos dizer que n(F U D) = 400. Assim: n(F U D) = n(F) + n(D) – n(F ∩ D) 400 = 280 + 195 – n(F ∩ D) n(F ∩ D) = 280 + 195 – 400 = 75 Ou seja, temos 75 pessoas que são fumantes e diabéticas ao mesmo tempo. Podemos dizer que, do total de 195 diabéticos, 75 também são fumantes, o que nos deixa com 195 – 75 = 120 diabéticos que NÃO são fumantes. Veja que é possível, também, resolver na forma de diagramas entrelaçados: Chamamos de “X” o número de pessoas na interseção entre os conjuntos. Sabemos que a soma dos dois conjuntos é igual a 400. Portanto: 400 = 280 – X + X + 195 – X X = 280 + 195 – 400 = 75 A partir daqui, o raciocínio é o mesmo. Item CORRETO. Resposta: C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se A, B e C forem conjuntos quaisquer tais que A, B ⊂ C, então (C\A) ∩ (AUB) = (C ∩ B).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto C\A é formado pelos elementos que fazem parte de C mas não fazem parte de A, ok? Vamos, assim, à resolução. Os conjuntos A e B estão contidos no conjunto C, portanto você pode desenhar os conjuntos A e B entrelaçados, e o conjunto C englobando os dois, como você pode ver na figura abaixo. Veja que eu coloquei os números 1, 2, 3 e 4 no conjunto para demarcar as diversas áreas que temos. Feito isso, o conjunto C\A é formado pela toda região do conjunto C, retirando aquela região que é o conjunto A. Ou seja, C\A é formado pelas regiões 1 e 4. Já o conjunto AUB é a região formada por esses dois conjuntos, que é composta pelas regiões 2, 3 e 4. A interseção entre ambos é a região 4, que é a região do conjunto B que NÃO faz parte do conjunto A. Por outro lado, C ∩ B é o conjunto B completo (regiões 3 e 4), mostrando que o item realmente é errado. Resposta: E</t>
   </si>
 </sst>
 </file>
@@ -306,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,203 +533,573 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="188.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="151.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="102.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="248.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="147.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="158.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="158.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="91.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="158.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="102.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="181.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
